--- a/Data/EC/NIT-9006828418.xlsx
+++ b/Data/EC/NIT-9006828418.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72A91D01-8E3F-46E5-A1D3-E023D919AD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B91E36C-2BA4-42B2-A72D-2CD580EEB8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{610882FC-BA1B-4849-A8A1-6F17E83749BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5DAA8801-C0A6-40B7-9EC3-AC3691144A91}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,142 +71,145 @@
     <t>BETTY LUCIA SANCHEZ SALCEDO</t>
   </si>
   <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -305,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -318,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90A7B7A-3049-C670-8036-72C6CB3E3345}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDFBB3A-D728-E342-CA20-B7F1D2531E42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3573F51D-0C30-447D-AAA6-EF5723FC8F74}">
-  <dimension ref="B2:J67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49939A7-187C-4DBD-878E-23C61A93E450}">
+  <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -996,7 +999,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1041,7 +1044,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1073,12 +1076,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4416000</v>
+        <v>4512000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1089,17 +1092,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1126,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>62</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -2171,42 +2174,54 @@
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="22" t="s">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="24">
-        <v>96000</v>
-      </c>
-      <c r="G61" s="24">
-        <v>2400000</v>
-      </c>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="H66" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
+      <c r="F61" s="18">
+        <v>96000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>2400000</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F62" s="24">
+        <v>96000</v>
+      </c>
+      <c r="G62" s="24">
+        <v>2400000</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C67" s="32"/>
       <c r="H67" s="1" t="s">
@@ -2215,12 +2230,23 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="H68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="H68:J68"/>
     <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H66:J66"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
